--- a/biology/Zoologie/Grassatores/Grassatores.xlsx
+++ b/biology/Zoologie/Grassatores/Grassatores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Grassatores sont un infra-ordre d'opilions laniatores qui comprend plus de 3 500 espèces.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cet infra-ordre se rencontrent surtout sous les tropiques[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cet infra-ordre se rencontrent surtout sous les tropiques.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cet infra-ordre sont caractérisées par leurs organes sexuels mâles dépourvus de musculature et actionnés par la pression hydraulique et par les griffes tarsiennes doubles de leurs pattes postérieures.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Catalogue of Opiliones (26/10/2021)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Catalogue of Opiliones (26/10/2021) :
 Assamioidea Sørensen, 1884
 Assamiidae Sørensen, 1884
 Pyramidopidae Sharma, Prieto &amp; Giribet, 2011
@@ -701,7 +719,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Giribet, Edgecombe, Wheeler &amp; Babbitt, 2002 : « Phylogeny of the Arachnida and Opiliones: a combined approach using morphological and molecular sequence data ». Cladistics, vol. 18, no 1, p. 5–70 (lire en ligne).</t>
         </is>
